--- a/Admission/MedicalHistory2024.xlsx
+++ b/Admission/MedicalHistory2024.xlsx
@@ -377,7 +377,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,19 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>71564</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Admission/MedicalHistory2024.xlsx
+++ b/Admission/MedicalHistory2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>User ID</t>
   </si>
@@ -33,12 +33,6 @@
   </si>
   <si>
     <t>No</t>
-  </si>
-  <si>
-    <t>Allergy</t>
-  </si>
-  <si>
-    <t>Scoliosis</t>
   </si>
 </sst>
 </file>
@@ -377,7 +371,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -404,85 +398,14 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>31143</v>
+        <v>38710</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>21664</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>13416</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>74283</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>67395</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>71564</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7" t="s">
         <v>5</v>
       </c>
     </row>
